--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Source.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Source.xlsx
@@ -26,34 +26,97 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>EVENTS (MEETING OR CONFERENCE)</t>
+  </si>
+  <si>
+    <t>EXPERT KNOWLEDGE ELICITATION AND EXPERT OPINIONS</t>
+  </si>
+  <si>
+    <t>Source_17</t>
+  </si>
+  <si>
+    <t>NATIONAL OR INTERNATIONAL OFFICIAL DATA:  Human health surveillance data</t>
+  </si>
+  <si>
+    <t>Source_10</t>
+  </si>
+  <si>
+    <t>e.g. laboratory diagnostic data, historical outbreaks investigations, biomonitoring survey</t>
+  </si>
+  <si>
+    <t>NATIONAL OR INTERNATIONAL OFFICIAL DATA: Food consumption survey or regional diet data</t>
+  </si>
+  <si>
+    <t>Source_11</t>
+  </si>
+  <si>
+    <t>NATIONAL OR INTERNATIONAL OFFICIAL DATA: Food monitoring data</t>
+  </si>
+  <si>
+    <t>Source_9</t>
+  </si>
+  <si>
+    <t>NATIONAL OR INTERNATIONAL OFFICIAL DATA: Food safety databases</t>
+  </si>
+  <si>
+    <t>Source_12</t>
+  </si>
+  <si>
+    <t>OTHER SURVEYS AND QUESTIONNAIRES</t>
+  </si>
+  <si>
+    <t>Source_13</t>
+  </si>
+  <si>
     <t>PUBLISHED SCIENTIFIC STUDIES</t>
   </si>
   <si>
     <t>Source_1</t>
   </si>
   <si>
+    <t>PUBLISHED SCIENTIFIC STUDIES: Contamination data and exposure models</t>
+  </si>
+  <si>
+    <t>Source_5</t>
+  </si>
+  <si>
+    <t>PUBLISHED SCIENTIFIC STUDIES: Dose-response data and models</t>
+  </si>
+  <si>
+    <t>Source_3</t>
+  </si>
+  <si>
     <t>PUBLISHED SCIENTIFIC STUDIES: Predictive microbial models and underlying data</t>
   </si>
   <si>
     <t>Source_2</t>
   </si>
   <si>
-    <t>PUBLISHED SCIENTIFIC STUDIES: Dose-response data and models</t>
-  </si>
-  <si>
-    <t>Source_3</t>
-  </si>
-  <si>
     <t>PUBLISHED SCIENTIFIC STUDIES: Toxicological data and models</t>
   </si>
   <si>
     <t>Source_4</t>
   </si>
   <si>
-    <t>PUBLISHED SCIENTIFIC STUDIES: Contamination data and exposure models</t>
-  </si>
-  <si>
-    <t>Source_5</t>
+    <t>RISK ASSESSMENTS</t>
+  </si>
+  <si>
+    <t>Source_14</t>
+  </si>
+  <si>
+    <t>Risk assessments carried out by national or international agencies and research institutes</t>
+  </si>
+  <si>
+    <t>RISK ASSESSMENTS:  International risk assessment agencies data</t>
+  </si>
+  <si>
+    <t>Source_15</t>
+  </si>
+  <si>
+    <t>RISK ASSESSMENTS: Risk assessments models</t>
+  </si>
+  <si>
+    <t>Source_16</t>
   </si>
   <si>
     <t>UNPUBLISHED STUDIES (EXPERIMENTS-OBSERVATIONS)</t>
@@ -62,6 +125,12 @@
     <t>Source_6</t>
   </si>
   <si>
+    <t>UNPUBLISHED STUDIES (EXPERIMENTS-OBSERVATIONS):   Laboratory (private, research) databases</t>
+  </si>
+  <si>
+    <t>Source_8</t>
+  </si>
+  <si>
     <t>UNPUBLISHED STUDIES (EXPERIMENTS-OBSERVATIONS): Studies and surveys</t>
   </si>
   <si>
@@ -69,75 +138,6 @@
   </si>
   <si>
     <t>Studies and surveys carried out by industry, association (society), etc.</t>
-  </si>
-  <si>
-    <t>UNPUBLISHED STUDIES (EXPERIMENTS-OBSERVATIONS):   Laboratory (private, research) databases</t>
-  </si>
-  <si>
-    <t>Source_8</t>
-  </si>
-  <si>
-    <t>NATIONAL OR INTERNATIONAL OFFICIAL DATA: Food monitoring data</t>
-  </si>
-  <si>
-    <t>Source_9</t>
-  </si>
-  <si>
-    <t>NATIONAL OR INTERNATIONAL OFFICIAL DATA:  Human health surveillance data</t>
-  </si>
-  <si>
-    <t>Source_10</t>
-  </si>
-  <si>
-    <t>e.g. laboratory diagnostic data, historical outbreaks investigations, biomonitoring survey</t>
-  </si>
-  <si>
-    <t>NATIONAL OR INTERNATIONAL OFFICIAL DATA: Food consumption survey or regional diet data</t>
-  </si>
-  <si>
-    <t>Source_11</t>
-  </si>
-  <si>
-    <t>NATIONAL OR INTERNATIONAL OFFICIAL DATA: Food safety databases</t>
-  </si>
-  <si>
-    <t>Source_12</t>
-  </si>
-  <si>
-    <t>OTHER SURVEYS AND QUESTIONNAIRES</t>
-  </si>
-  <si>
-    <t>Source_13</t>
-  </si>
-  <si>
-    <t>RISK ASSESSMENTS</t>
-  </si>
-  <si>
-    <t>Source_14</t>
-  </si>
-  <si>
-    <t>Risk assessments carried out by national or international agencies and research institutes</t>
-  </si>
-  <si>
-    <t>RISK ASSESSMENTS:  International risk assessment agencies data</t>
-  </si>
-  <si>
-    <t>Source_15</t>
-  </si>
-  <si>
-    <t>RISK ASSESSMENTS: Risk assessments models</t>
-  </si>
-  <si>
-    <t>Source_16</t>
-  </si>
-  <si>
-    <t>EXPERT KNOWLEDGE ELICITATION AND EXPERT OPINIONS</t>
-  </si>
-  <si>
-    <t>Source_17</t>
-  </si>
-  <si>
-    <t>EVENTS (MEETING OR CONFERENCE)</t>
   </si>
 </sst>
 </file>
@@ -198,28 +198,51 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -255,98 +278,98 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
       </c>
     </row>
